--- a/templates/excel_template_metadata.xlsx
+++ b/templates/excel_template_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinnorgaard/Documents/GitHub/BIDS-converter/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24856A7F-0483-6C4B-A741-EB90F138E873}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D5AE04-78A9-D04D-B775-9CB3FAD316CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16700" xr2:uid="{B09AB50C-E81C-BF4B-AB80-4C0F8EC55ACD}"/>
   </bookViews>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07A739-95C2-BD46-B2B0-50E40D980EB4}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/templates/excel_template_metadata.xlsx
+++ b/templates/excel_template_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinnorgaard/Documents/GitHub/BIDS-converter/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D5AE04-78A9-D04D-B775-9CB3FAD316CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6AA028-B137-5E43-B2A9-F49AFCA2C145}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16700" xr2:uid="{B09AB50C-E81C-BF4B-AB80-4C0F8EC55ACD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>ReconFilterSize</t>
+  </si>
+  <si>
+    <t>AttenuationCorrection</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07A739-95C2-BD46-B2B0-50E40D980EB4}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,9 +501,10 @@
     <col min="23" max="23" width="26.33203125" customWidth="1"/>
     <col min="24" max="24" width="27.33203125" customWidth="1"/>
     <col min="25" max="26" width="14.83203125" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,6 +582,9 @@
       </c>
       <c r="Z1" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
